--- a/out/CE/FigA_32.xlsx
+++ b/out/CE/FigA_32.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E14D298-C61C-428E-A203-7E1A95D90FCC}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.52827999999999997</v>
+        <v>0.45889999999999997</v>
       </c>
       <c r="B1">
-        <v>0.69699999999999995</v>
+        <v>0.44996000000000003</v>
       </c>
       <c r="C1">
-        <v>0.61263999999999996</v>
+        <v>0.45141999999999999</v>
+      </c>
+      <c r="D1">
+        <v>0.48708000000000001</v>
+      </c>
+      <c r="E1">
+        <v>0.45972000000000002</v>
+      </c>
+      <c r="F1">
+        <v>0.42437999999999998</v>
+      </c>
+      <c r="G1">
+        <v>0.47796</v>
+      </c>
+      <c r="H1">
+        <v>0.6411</v>
+      </c>
+      <c r="I1">
+        <v>0.4259</v>
+      </c>
+      <c r="J1">
+        <v>0.43885999999999997</v>
+      </c>
+      <c r="K1">
+        <v>0.38451999999999997</v>
+      </c>
+      <c r="L1">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="M1">
+        <v>0.50097999999999998</v>
+      </c>
+      <c r="N1">
+        <v>0.43941999999999998</v>
+      </c>
+      <c r="O1">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="P1">
+        <v>0.43275999999999998</v>
+      </c>
+      <c r="Q1">
+        <v>0.48315999999999998</v>
+      </c>
+      <c r="R1">
+        <v>0.39138000000000001</v>
+      </c>
+      <c r="S1">
+        <v>0.47045999999999999</v>
+      </c>
+      <c r="T1">
+        <v>0.48060000000000003</v>
+      </c>
+      <c r="U1">
+        <v>0.47798000000000002</v>
+      </c>
+      <c r="V1">
+        <v>0.52136000000000005</v>
+      </c>
+      <c r="W1">
+        <v>0.43763999999999997</v>
+      </c>
+      <c r="X1">
+        <v>0.52825999999999995</v>
+      </c>
+      <c r="Y1">
+        <v>0.43543999999999999</v>
+      </c>
+      <c r="Z1">
+        <v>0.47711999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.40877999999999998</v>
+      </c>
+      <c r="AB1">
+        <v>0.51702000000000004</v>
+      </c>
+      <c r="AC1">
+        <v>0.46528000000000003</v>
+      </c>
+      <c r="AD1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.46877999999999997</v>
+      </c>
+      <c r="AF1">
+        <v>0.44228000000000001</v>
+      </c>
+      <c r="AG1">
+        <v>0.49108000000000002</v>
+      </c>
+      <c r="AH1">
+        <v>0.47871999999999998</v>
+      </c>
+      <c r="AI1">
+        <v>0.51803999999999994</v>
+      </c>
+      <c r="AJ1">
+        <v>0.52786</v>
+      </c>
+      <c r="AK1">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="AL1">
+        <v>0.45401999999999998</v>
+      </c>
+      <c r="AM1">
+        <v>0.48337999999999998</v>
+      </c>
+      <c r="AN1">
+        <v>0.50904000000000005</v>
+      </c>
+      <c r="AO1">
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="AP1">
+        <v>0.50175999999999998</v>
+      </c>
+      <c r="AQ1">
+        <v>0.47846</v>
+      </c>
+      <c r="AR1">
+        <v>0.49797999999999998</v>
+      </c>
+      <c r="AS1">
+        <v>0.45113999999999999</v>
+      </c>
+      <c r="AT1">
+        <v>0.5161</v>
+      </c>
+      <c r="AU1">
+        <v>0.51405999999999996</v>
+      </c>
+      <c r="AV1">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="AW1">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="AX1">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="AY1">
+        <v>0.46651999999999999</v>
+      </c>
+      <c r="AZ1">
+        <v>0.42083999999999999</v>
+      </c>
+      <c r="BA1">
+        <v>0.44602000000000003</v>
+      </c>
+      <c r="BB1">
+        <v>0.47122000000000003</v>
+      </c>
+      <c r="BC1">
+        <v>0.50653999999999999</v>
+      </c>
+      <c r="BD1">
+        <v>0.36403999999999997</v>
+      </c>
+      <c r="BE1">
+        <v>0.53337999999999997</v>
+      </c>
+      <c r="BF1">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="BG1">
+        <v>0.49014000000000002</v>
+      </c>
+      <c r="BH1">
+        <v>0.47996</v>
+      </c>
+      <c r="BI1">
+        <v>0.52476</v>
+      </c>
+      <c r="BJ1">
+        <v>0.49994</v>
+      </c>
+      <c r="BK1">
+        <v>0.37018000000000001</v>
+      </c>
+      <c r="BL1">
+        <v>0.47366000000000003</v>
+      </c>
+      <c r="BM1">
+        <v>0.50017999999999996</v>
+      </c>
+      <c r="BN1">
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="BO1">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="BP1">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="BQ1">
+        <v>0.66147999999999996</v>
+      </c>
+      <c r="BR1">
+        <v>0.44257999999999997</v>
+      </c>
+      <c r="BS1">
+        <v>0.45601999999999998</v>
+      </c>
+      <c r="BT1">
+        <v>0.54464000000000001</v>
+      </c>
+      <c r="BU1">
+        <v>0.48759999999999998</v>
+      </c>
+      <c r="BV1">
+        <v>0.52842</v>
+      </c>
+      <c r="BW1">
+        <v>0.46689999999999998</v>
+      </c>
+      <c r="BX1">
+        <v>0.47242000000000001</v>
+      </c>
+      <c r="BY1">
+        <v>0.42218</v>
+      </c>
+      <c r="BZ1">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="CA1">
+        <v>0.4783</v>
+      </c>
+      <c r="CB1">
+        <v>0.41283999999999998</v>
+      </c>
+      <c r="CC1">
+        <v>0.35771999999999998</v>
+      </c>
+      <c r="CD1">
+        <v>0.46106000000000003</v>
+      </c>
+      <c r="CE1">
+        <v>0.53266000000000002</v>
+      </c>
+      <c r="CF1">
+        <v>0.66620000000000001</v>
+      </c>
+      <c r="CG1">
+        <v>0.41358</v>
+      </c>
+      <c r="CH1">
+        <v>0.65481999999999996</v>
+      </c>
+      <c r="CI1">
+        <v>0.44762000000000002</v>
+      </c>
+      <c r="CJ1">
+        <v>0.49534</v>
+      </c>
+      <c r="CK1">
+        <v>0.42693999999999999</v>
+      </c>
+      <c r="CL1">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="CM1">
+        <v>0.46178000000000002</v>
+      </c>
+      <c r="CN1">
+        <v>0.43868000000000001</v>
+      </c>
+      <c r="CO1">
+        <v>0.44841999999999999</v>
+      </c>
+      <c r="CP1">
+        <v>0.43634000000000001</v>
+      </c>
+      <c r="CQ1">
+        <v>0.44280000000000003</v>
+      </c>
+      <c r="CR1">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="CS1">
+        <v>0.51027999999999996</v>
+      </c>
+      <c r="CT1">
+        <v>0.48752000000000001</v>
+      </c>
+      <c r="CU1">
+        <v>0.39850000000000002</v>
+      </c>
+      <c r="CV1">
+        <v>0.49225999999999998</v>
+      </c>
+      <c r="CW1">
+        <v>0.48193160000000007</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.52322000000000002</v>
+        <v>0.48082000000000003</v>
       </c>
       <c r="B2">
-        <v>0.45522000000000001</v>
+        <v>0.50575999999999999</v>
       </c>
       <c r="C2">
-        <v>0.48921999999999999</v>
+        <v>0.43593999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.50953999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.46404000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.46744000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.51124000000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.44862000000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.47593999999999997</v>
+      </c>
+      <c r="J2">
+        <v>0.46323999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.51482000000000006</v>
+      </c>
+      <c r="L2">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.50624000000000002</v>
+      </c>
+      <c r="N2">
+        <v>0.47746</v>
+      </c>
+      <c r="O2">
+        <v>0.41527999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.50294000000000005</v>
+      </c>
+      <c r="Q2">
+        <v>0.43931999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0.52078000000000002</v>
+      </c>
+      <c r="S2">
+        <v>0.47776000000000002</v>
+      </c>
+      <c r="T2">
+        <v>0.44081999999999999</v>
+      </c>
+      <c r="U2">
+        <v>0.38684000000000002</v>
+      </c>
+      <c r="V2">
+        <v>0.51402000000000003</v>
+      </c>
+      <c r="W2">
+        <v>0.49684</v>
+      </c>
+      <c r="X2">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="Y2">
+        <v>0.50287999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>0.42915999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.50597999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.49602000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>0.43578</v>
+      </c>
+      <c r="AD2">
+        <v>0.41771999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>0.48136000000000001</v>
+      </c>
+      <c r="AF2">
+        <v>0.50005999999999995</v>
+      </c>
+      <c r="AG2">
+        <v>0.45056000000000002</v>
+      </c>
+      <c r="AH2">
+        <v>0.37902000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>0.47552</v>
+      </c>
+      <c r="AJ2">
+        <v>0.41267999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.47333999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>0.50527999999999995</v>
+      </c>
+      <c r="AM2">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="AN2">
+        <v>0.45285999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.33661999999999997</v>
+      </c>
+      <c r="AP2">
+        <v>0.44925999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.47314000000000001</v>
+      </c>
+      <c r="AR2">
+        <v>0.44975999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.48753999999999997</v>
+      </c>
+      <c r="AT2">
+        <v>0.45548</v>
+      </c>
+      <c r="AU2">
+        <v>0.46695999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.50297999999999998</v>
+      </c>
+      <c r="AW2">
+        <v>0.49127999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.37880999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.46322000000000002</v>
+      </c>
+      <c r="AZ2">
+        <v>0.39742</v>
+      </c>
+      <c r="BA2">
+        <v>0.50666</v>
+      </c>
+      <c r="BB2">
+        <v>0.46211999999999998</v>
+      </c>
+      <c r="BC2">
+        <v>0.49681999999999998</v>
+      </c>
+      <c r="BD2">
+        <v>0.50334000000000001</v>
+      </c>
+      <c r="BE2">
+        <v>0.48633999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.41626000000000002</v>
+      </c>
+      <c r="BG2">
+        <v>0.41546</v>
+      </c>
+      <c r="BH2">
+        <v>0.46401999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.51</v>
+      </c>
+      <c r="BJ2">
+        <v>0.53364</v>
+      </c>
+      <c r="BK2">
+        <v>0.46182000000000001</v>
+      </c>
+      <c r="BL2">
+        <v>0.39985999999999999</v>
+      </c>
+      <c r="BM2">
+        <v>0.50405999999999995</v>
+      </c>
+      <c r="BN2">
+        <v>0.54896</v>
+      </c>
+      <c r="BO2">
+        <v>0.35861999999999999</v>
+      </c>
+      <c r="BP2">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.50373999999999997</v>
+      </c>
+      <c r="BR2">
+        <v>0.64678000000000002</v>
+      </c>
+      <c r="BS2">
+        <v>0.47992000000000001</v>
+      </c>
+      <c r="BT2">
+        <v>0.45785999999999999</v>
+      </c>
+      <c r="BU2">
+        <v>0.47827999999999998</v>
+      </c>
+      <c r="BV2">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="BW2">
+        <v>0.41183999999999998</v>
+      </c>
+      <c r="BX2">
+        <v>0.65102000000000004</v>
+      </c>
+      <c r="BY2">
+        <v>0.46522000000000002</v>
+      </c>
+      <c r="BZ2">
+        <v>0.47627999999999998</v>
+      </c>
+      <c r="CA2">
+        <v>0.47598000000000001</v>
+      </c>
+      <c r="CB2">
+        <v>0.45151999999999998</v>
+      </c>
+      <c r="CC2">
+        <v>0.55018</v>
+      </c>
+      <c r="CD2">
+        <v>0.44746000000000002</v>
+      </c>
+      <c r="CE2">
+        <v>0.39898</v>
+      </c>
+      <c r="CF2">
+        <v>0.49284</v>
+      </c>
+      <c r="CG2">
+        <v>0.4667</v>
+      </c>
+      <c r="CH2">
+        <v>0.52185999999999999</v>
+      </c>
+      <c r="CI2">
+        <v>0.51546000000000003</v>
+      </c>
+      <c r="CJ2">
+        <v>0.49952000000000002</v>
+      </c>
+      <c r="CK2">
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="CL2">
+        <v>0.45395999999999997</v>
+      </c>
+      <c r="CM2">
+        <v>0.46789999999999998</v>
+      </c>
+      <c r="CN2">
+        <v>0.37785999999999997</v>
+      </c>
+      <c r="CO2">
+        <v>0.46245999999999998</v>
+      </c>
+      <c r="CP2">
+        <v>0.65236000000000005</v>
+      </c>
+      <c r="CQ2">
+        <v>0.39472000000000002</v>
+      </c>
+      <c r="CR2">
+        <v>0.40811999999999998</v>
+      </c>
+      <c r="CS2">
+        <v>0.52276</v>
+      </c>
+      <c r="CT2">
+        <v>0.47326000000000001</v>
+      </c>
+      <c r="CU2">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="CV2">
+        <v>0.51293999999999995</v>
+      </c>
+      <c r="CW2">
+        <v>0.47293749999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.50741999999999998</v>
+        <v>0.39657999999999999</v>
       </c>
       <c r="B3">
-        <v>0.44569999999999999</v>
+        <v>0.42352000000000001</v>
       </c>
       <c r="C3">
-        <v>0.47655999999999998</v>
+        <v>0.46883999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.51266</v>
+      </c>
+      <c r="E3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.44128000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.40023999999999998</v>
+      </c>
+      <c r="H3">
+        <v>0.49293999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.46283999999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.44438</v>
+      </c>
+      <c r="K3">
+        <v>0.63878000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.45212000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.47808</v>
+      </c>
+      <c r="N3">
+        <v>0.48914000000000002</v>
+      </c>
+      <c r="O3">
+        <v>0.52227999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.53408</v>
+      </c>
+      <c r="Q3">
+        <v>0.49381999999999998</v>
+      </c>
+      <c r="R3">
+        <v>0.42812</v>
+      </c>
+      <c r="S3">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="U3">
+        <v>0.48683999999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.53591999999999995</v>
+      </c>
+      <c r="W3">
+        <v>0.44278000000000001</v>
+      </c>
+      <c r="X3">
+        <v>0.49743999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>0.53724000000000005</v>
+      </c>
+      <c r="Z3">
+        <v>0.50731999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.55415999999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.48746</v>
+      </c>
+      <c r="AC3">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="AD3">
+        <v>0.50517999999999996</v>
+      </c>
+      <c r="AE3">
+        <v>0.49358000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>0.39195999999999998</v>
+      </c>
+      <c r="AG3">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="AH3">
+        <v>0.46198</v>
+      </c>
+      <c r="AI3">
+        <v>0.55210000000000004</v>
+      </c>
+      <c r="AJ3">
+        <v>0.50224000000000002</v>
+      </c>
+      <c r="AK3">
+        <v>0.42083999999999999</v>
+      </c>
+      <c r="AL3">
+        <v>0.47676000000000002</v>
+      </c>
+      <c r="AM3">
+        <v>0.54766000000000004</v>
+      </c>
+      <c r="AN3">
+        <v>0.45241999999999999</v>
+      </c>
+      <c r="AO3">
+        <v>0.49102000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>0.48627999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.50531999999999999</v>
+      </c>
+      <c r="AR3">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="AS3">
+        <v>0.52824000000000004</v>
+      </c>
+      <c r="AT3">
+        <v>0.47792000000000001</v>
+      </c>
+      <c r="AU3">
+        <v>0.44191999999999998</v>
+      </c>
+      <c r="AV3">
+        <v>0.46982000000000002</v>
+      </c>
+      <c r="AW3">
+        <v>0.36036000000000001</v>
+      </c>
+      <c r="AX3">
+        <v>0.44832</v>
+      </c>
+      <c r="AY3">
+        <v>0.4612</v>
+      </c>
+      <c r="AZ3">
+        <v>0.51061999999999996</v>
+      </c>
+      <c r="BA3">
+        <v>0.39223999999999998</v>
+      </c>
+      <c r="BB3">
+        <v>0.53102000000000005</v>
+      </c>
+      <c r="BC3">
+        <v>0.55047999999999997</v>
+      </c>
+      <c r="BD3">
+        <v>0.47408</v>
+      </c>
+      <c r="BE3">
+        <v>0.51932</v>
+      </c>
+      <c r="BF3">
+        <v>0.45079999999999998</v>
+      </c>
+      <c r="BG3">
+        <v>0.65832000000000002</v>
+      </c>
+      <c r="BH3">
+        <v>0.49187999999999998</v>
+      </c>
+      <c r="BI3">
+        <v>0.54552</v>
+      </c>
+      <c r="BJ3">
+        <v>0.50838000000000005</v>
+      </c>
+      <c r="BK3">
+        <v>0.51107999999999998</v>
+      </c>
+      <c r="BL3">
+        <v>0.53642000000000001</v>
+      </c>
+      <c r="BM3">
+        <v>0.48896000000000001</v>
+      </c>
+      <c r="BN3">
+        <v>0.47914000000000001</v>
+      </c>
+      <c r="BO3">
+        <v>0.54388000000000003</v>
+      </c>
+      <c r="BP3">
+        <v>0.39235999999999999</v>
+      </c>
+      <c r="BQ3">
+        <v>0.53913999999999995</v>
+      </c>
+      <c r="BR3">
+        <v>0.43269999999999997</v>
+      </c>
+      <c r="BS3">
+        <v>0.48498000000000002</v>
+      </c>
+      <c r="BT3">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="BU3">
+        <v>0.41567999999999999</v>
+      </c>
+      <c r="BV3">
+        <v>0.48146</v>
+      </c>
+      <c r="BW3">
+        <v>0.54903999999999997</v>
+      </c>
+      <c r="BX3">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="BY3">
+        <v>0.39448</v>
+      </c>
+      <c r="BZ3">
+        <v>0.44951999999999998</v>
+      </c>
+      <c r="CA3">
+        <v>0.50307999999999997</v>
+      </c>
+      <c r="CB3">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="CC3">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="CD3">
+        <v>0.44206000000000001</v>
+      </c>
+      <c r="CE3">
+        <v>0.47893999999999998</v>
+      </c>
+      <c r="CF3">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="CG3">
+        <v>0.48614000000000002</v>
+      </c>
+      <c r="CH3">
+        <v>0.49772</v>
+      </c>
+      <c r="CI3">
+        <v>0.68188000000000004</v>
+      </c>
+      <c r="CJ3">
+        <v>0.51317999999999997</v>
+      </c>
+      <c r="CK3">
+        <v>0.53454000000000002</v>
+      </c>
+      <c r="CL3">
+        <v>0.44338</v>
+      </c>
+      <c r="CM3">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="CN3">
+        <v>0.48230000000000001</v>
+      </c>
+      <c r="CO3">
+        <v>0.60746</v>
+      </c>
+      <c r="CP3">
+        <v>0.55962000000000001</v>
+      </c>
+      <c r="CQ3">
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="CR3">
+        <v>0.46348</v>
+      </c>
+      <c r="CS3">
+        <v>0.47344000000000003</v>
+      </c>
+      <c r="CT3">
+        <v>0.50604000000000005</v>
+      </c>
+      <c r="CU3">
+        <v>0.52090000000000003</v>
+      </c>
+      <c r="CV3">
+        <v>0.50346000000000002</v>
+      </c>
+      <c r="CW3">
+        <v>0.49139819999999979</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.46622000000000002</v>
+        <v>0.59311999999999998</v>
       </c>
       <c r="B4">
-        <v>0.45963999999999999</v>
+        <v>0.48104000000000002</v>
       </c>
       <c r="C4">
-        <v>0.46293000000000001</v>
+        <v>0.45579999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.35014000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.52537999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.49393999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.50266</v>
+      </c>
+      <c r="H4">
+        <v>0.46538000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.44296000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.49765999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="L4">
+        <v>0.45301999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.48083999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.51654</v>
+      </c>
+      <c r="O4">
+        <v>0.45922000000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.44832</v>
+      </c>
+      <c r="Q4">
+        <v>0.52725999999999995</v>
+      </c>
+      <c r="R4">
+        <v>0.46842</v>
+      </c>
+      <c r="S4">
+        <v>0.496</v>
+      </c>
+      <c r="T4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="U4">
+        <v>0.49725999999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.50771999999999995</v>
+      </c>
+      <c r="W4">
+        <v>0.56766000000000005</v>
+      </c>
+      <c r="X4">
+        <v>0.49918000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>0.50451999999999997</v>
+      </c>
+      <c r="Z4">
+        <v>0.48433999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>0.45913999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.53486</v>
+      </c>
+      <c r="AC4">
+        <v>0.46251999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>0.50963999999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="AF4">
+        <v>0.59704000000000002</v>
+      </c>
+      <c r="AG4">
+        <v>0.47486</v>
+      </c>
+      <c r="AH4">
+        <v>0.50697999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>0.42671999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.52158000000000004</v>
+      </c>
+      <c r="AK4">
+        <v>0.52512000000000003</v>
+      </c>
+      <c r="AL4">
+        <v>0.46592</v>
+      </c>
+      <c r="AM4">
+        <v>0.48859999999999998</v>
+      </c>
+      <c r="AN4">
+        <v>0.51873999999999998</v>
+      </c>
+      <c r="AO4">
+        <v>0.50373999999999997</v>
+      </c>
+      <c r="AP4">
+        <v>0.44644</v>
+      </c>
+      <c r="AQ4">
+        <v>0.51517999999999997</v>
+      </c>
+      <c r="AR4">
+        <v>0.67264000000000002</v>
+      </c>
+      <c r="AS4">
+        <v>0.49156</v>
+      </c>
+      <c r="AT4">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="AU4">
+        <v>0.47016000000000002</v>
+      </c>
+      <c r="AV4">
+        <v>0.46501999999999999</v>
+      </c>
+      <c r="AW4">
+        <v>0.44888</v>
+      </c>
+      <c r="AX4">
+        <v>0.48476000000000002</v>
+      </c>
+      <c r="AY4">
+        <v>0.44097999999999998</v>
+      </c>
+      <c r="AZ4">
+        <v>0.49872</v>
+      </c>
+      <c r="BA4">
+        <v>0.49324000000000001</v>
+      </c>
+      <c r="BB4">
+        <v>0.47932000000000002</v>
+      </c>
+      <c r="BC4">
+        <v>0.45382</v>
+      </c>
+      <c r="BD4">
+        <v>0.52966000000000002</v>
+      </c>
+      <c r="BE4">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="BF4">
+        <v>0.48658000000000001</v>
+      </c>
+      <c r="BG4">
+        <v>0.41564000000000001</v>
+      </c>
+      <c r="BH4">
+        <v>0.43885999999999997</v>
+      </c>
+      <c r="BI4">
+        <v>0.41868</v>
+      </c>
+      <c r="BJ4">
+        <v>0.49893999999999999</v>
+      </c>
+      <c r="BK4">
+        <v>0.46523999999999999</v>
+      </c>
+      <c r="BL4">
+        <v>0.50882000000000005</v>
+      </c>
+      <c r="BM4">
+        <v>0.51153999999999999</v>
+      </c>
+      <c r="BN4">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="BO4">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="BP4">
+        <v>0.53554000000000002</v>
+      </c>
+      <c r="BQ4">
+        <v>0.49258000000000002</v>
+      </c>
+      <c r="BR4">
+        <v>0.52368000000000003</v>
+      </c>
+      <c r="BS4">
+        <v>0.62926000000000004</v>
+      </c>
+      <c r="BT4">
+        <v>0.49712000000000001</v>
+      </c>
+      <c r="BU4">
+        <v>0.47188000000000002</v>
+      </c>
+      <c r="BV4">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="BW4">
+        <v>0.43781999999999999</v>
+      </c>
+      <c r="BX4">
+        <v>0.46532000000000001</v>
+      </c>
+      <c r="BY4">
+        <v>0.50607999999999997</v>
+      </c>
+      <c r="BZ4">
+        <v>0.49928</v>
+      </c>
+      <c r="CA4">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="CB4">
+        <v>0.51468000000000003</v>
+      </c>
+      <c r="CC4">
+        <v>0.54947999999999997</v>
+      </c>
+      <c r="CD4">
+        <v>0.42231999999999997</v>
+      </c>
+      <c r="CE4">
+        <v>0.40867999999999999</v>
+      </c>
+      <c r="CF4">
+        <v>0.45606000000000002</v>
+      </c>
+      <c r="CG4">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="CH4">
+        <v>0.54657999999999995</v>
+      </c>
+      <c r="CI4">
+        <v>0.53017999999999998</v>
+      </c>
+      <c r="CJ4">
+        <v>0.61960000000000004</v>
+      </c>
+      <c r="CK4">
+        <v>0.50427999999999995</v>
+      </c>
+      <c r="CL4">
+        <v>0.51912000000000003</v>
+      </c>
+      <c r="CM4">
+        <v>0.50975999999999999</v>
+      </c>
+      <c r="CN4">
+        <v>0.49515999999999999</v>
+      </c>
+      <c r="CO4">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="CP4">
+        <v>0.52598</v>
+      </c>
+      <c r="CQ4">
+        <v>0.52324000000000004</v>
+      </c>
+      <c r="CR4">
+        <v>0.43581999999999999</v>
+      </c>
+      <c r="CS4">
+        <v>0.55876000000000003</v>
+      </c>
+      <c r="CT4">
+        <v>0.48526000000000002</v>
+      </c>
+      <c r="CU4">
+        <v>0.52546000000000004</v>
+      </c>
+      <c r="CV4">
+        <v>0.48543999999999998</v>
+      </c>
+      <c r="CW4">
+        <v>0.49526739999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.49127999999999999</v>
+        <v>0.44625999999999999</v>
       </c>
       <c r="B5">
-        <v>0.48802000000000001</v>
+        <v>0.51836000000000004</v>
       </c>
       <c r="C5">
-        <v>0.48965000000000003</v>
+        <v>0.48871999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.49506</v>
+      </c>
+      <c r="E5">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.48562</v>
+      </c>
+      <c r="H5">
+        <v>0.56152000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.50251999999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.48755999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.50656000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="N5">
+        <v>0.50356000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.46254000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.4627</v>
+      </c>
+      <c r="Q5">
+        <v>0.47764000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.46632000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.59114</v>
+      </c>
+      <c r="T5">
+        <v>0.42409999999999998</v>
+      </c>
+      <c r="U5">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="V5">
+        <v>0.45673999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0.52044000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.47610000000000002</v>
+      </c>
+      <c r="Y5">
+        <v>0.47470000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.47493999999999997</v>
+      </c>
+      <c r="AB5">
+        <v>0.51</v>
+      </c>
+      <c r="AC5">
+        <v>0.49193999999999999</v>
+      </c>
+      <c r="AD5">
+        <v>0.47714000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.52414000000000005</v>
+      </c>
+      <c r="AG5">
+        <v>0.49775999999999998</v>
+      </c>
+      <c r="AH5">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="AI5">
+        <v>0.46764</v>
+      </c>
+      <c r="AJ5">
+        <v>0.44894000000000001</v>
+      </c>
+      <c r="AK5">
+        <v>0.49759999999999999</v>
+      </c>
+      <c r="AL5">
+        <v>0.46501999999999999</v>
+      </c>
+      <c r="AM5">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="AN5">
+        <v>0.52268000000000003</v>
+      </c>
+      <c r="AO5">
+        <v>0.50697999999999999</v>
+      </c>
+      <c r="AP5">
+        <v>0.52225999999999995</v>
+      </c>
+      <c r="AQ5">
+        <v>0.40961999999999998</v>
+      </c>
+      <c r="AR5">
+        <v>0.53166000000000002</v>
+      </c>
+      <c r="AS5">
+        <v>0.46711999999999998</v>
+      </c>
+      <c r="AT5">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="AU5">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="AV5">
+        <v>0.47110000000000002</v>
+      </c>
+      <c r="AW5">
+        <v>0.52414000000000005</v>
+      </c>
+      <c r="AX5">
+        <v>0.50258000000000003</v>
+      </c>
+      <c r="AY5">
+        <v>0.50544</v>
+      </c>
+      <c r="AZ5">
+        <v>0.48934</v>
+      </c>
+      <c r="BA5">
+        <v>0.50907999999999998</v>
+      </c>
+      <c r="BB5">
+        <v>0.49124000000000001</v>
+      </c>
+      <c r="BC5">
+        <v>0.47542000000000001</v>
+      </c>
+      <c r="BD5">
+        <v>0.55847999999999998</v>
+      </c>
+      <c r="BE5">
+        <v>0.47314000000000001</v>
+      </c>
+      <c r="BF5">
+        <v>0.43536000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>0.67115999999999998</v>
+      </c>
+      <c r="BH5">
+        <v>0.54913999999999996</v>
+      </c>
+      <c r="BI5">
+        <v>0.49352000000000001</v>
+      </c>
+      <c r="BJ5">
+        <v>0.44756000000000001</v>
+      </c>
+      <c r="BK5">
+        <v>0.67113999999999996</v>
+      </c>
+      <c r="BL5">
+        <v>0.49719999999999998</v>
+      </c>
+      <c r="BM5">
+        <v>0.56572</v>
+      </c>
+      <c r="BN5">
+        <v>0.63161999999999996</v>
+      </c>
+      <c r="BO5">
+        <v>0.52903999999999995</v>
+      </c>
+      <c r="BP5">
+        <v>0.52173999999999998</v>
+      </c>
+      <c r="BQ5">
+        <v>0.42736000000000002</v>
+      </c>
+      <c r="BR5">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="BS5">
+        <v>0.49865999999999999</v>
+      </c>
+      <c r="BT5">
+        <v>0.47008</v>
+      </c>
+      <c r="BU5">
+        <v>0.49868000000000001</v>
+      </c>
+      <c r="BV5">
+        <v>0.55103999999999997</v>
+      </c>
+      <c r="BW5">
+        <v>0.38894000000000001</v>
+      </c>
+      <c r="BX5">
+        <v>0.46948000000000001</v>
+      </c>
+      <c r="BY5">
+        <v>0.51317999999999997</v>
+      </c>
+      <c r="BZ5">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="CA5">
+        <v>0.52395999999999998</v>
+      </c>
+      <c r="CB5">
+        <v>0.56725999999999999</v>
+      </c>
+      <c r="CC5">
+        <v>0.48814000000000002</v>
+      </c>
+      <c r="CD5">
+        <v>0.40589999999999998</v>
+      </c>
+      <c r="CE5">
+        <v>0.55911999999999995</v>
+      </c>
+      <c r="CF5">
+        <v>0.43302000000000002</v>
+      </c>
+      <c r="CG5">
+        <v>0.47358</v>
+      </c>
+      <c r="CH5">
+        <v>0.51756000000000002</v>
+      </c>
+      <c r="CI5">
+        <v>0.51922000000000001</v>
+      </c>
+      <c r="CJ5">
+        <v>0.65686</v>
+      </c>
+      <c r="CK5">
+        <v>0.48753999999999997</v>
+      </c>
+      <c r="CL5">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="CM5">
+        <v>0.46607999999999999</v>
+      </c>
+      <c r="CN5">
+        <v>0.51185999999999998</v>
+      </c>
+      <c r="CO5">
+        <v>0.47887999999999997</v>
+      </c>
+      <c r="CP5">
+        <v>0.55432000000000003</v>
+      </c>
+      <c r="CQ5">
+        <v>0.51504000000000005</v>
+      </c>
+      <c r="CR5">
+        <v>0.51283999999999996</v>
+      </c>
+      <c r="CS5">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="CT5">
+        <v>0.57920000000000005</v>
+      </c>
+      <c r="CU5">
+        <v>0.55484</v>
+      </c>
+      <c r="CV5">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="CW5">
+        <v>0.4988249999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.50249999999999995</v>
+        <v>0.51056000000000001</v>
       </c>
       <c r="B6">
-        <v>0.51361999999999997</v>
+        <v>0.51792000000000005</v>
       </c>
       <c r="C6">
-        <v>0.50805999999999996</v>
+        <v>0.51390000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.52747999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.42824000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.48174</v>
+      </c>
+      <c r="G6">
+        <v>0.46992</v>
+      </c>
+      <c r="H6">
+        <v>0.45851999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.49624000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.47292000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.49874000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.42093999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.43268000000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.48218</v>
+      </c>
+      <c r="O6">
+        <v>0.51185999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.50378000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.49384</v>
+      </c>
+      <c r="R6">
+        <v>0.51693999999999996</v>
+      </c>
+      <c r="S6">
+        <v>0.43997999999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.54168000000000005</v>
+      </c>
+      <c r="U6">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="V6">
+        <v>0.56845999999999997</v>
+      </c>
+      <c r="W6">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="X6">
+        <v>0.44340000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="Z6">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.52432000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>0.43578</v>
+      </c>
+      <c r="AC6">
+        <v>0.49328</v>
+      </c>
+      <c r="AD6">
+        <v>0.48821999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.54301999999999995</v>
+      </c>
+      <c r="AF6">
+        <v>0.45506000000000002</v>
+      </c>
+      <c r="AG6">
+        <v>0.53117999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.56345999999999996</v>
+      </c>
+      <c r="AI6">
+        <v>0.49593999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="AK6">
+        <v>0.50627999999999995</v>
+      </c>
+      <c r="AL6">
+        <v>0.54601999999999995</v>
+      </c>
+      <c r="AM6">
+        <v>0.46914</v>
+      </c>
+      <c r="AN6">
+        <v>0.52185999999999999</v>
+      </c>
+      <c r="AO6">
+        <v>0.54915999999999998</v>
+      </c>
+      <c r="AP6">
+        <v>0.52778000000000003</v>
+      </c>
+      <c r="AQ6">
+        <v>0.52124000000000004</v>
+      </c>
+      <c r="AR6">
+        <v>0.55015999999999998</v>
+      </c>
+      <c r="AS6">
+        <v>0.44940000000000002</v>
+      </c>
+      <c r="AT6">
+        <v>0.4955</v>
+      </c>
+      <c r="AU6">
+        <v>0.46922000000000003</v>
+      </c>
+      <c r="AV6">
+        <v>0.56447999999999998</v>
+      </c>
+      <c r="AW6">
+        <v>0.54783999999999999</v>
+      </c>
+      <c r="AX6">
+        <v>0.47717999999999999</v>
+      </c>
+      <c r="AY6">
+        <v>0.52405999999999997</v>
+      </c>
+      <c r="AZ6">
+        <v>0.42564000000000002</v>
+      </c>
+      <c r="BA6">
+        <v>0.54786000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0.55396000000000001</v>
+      </c>
+      <c r="BC6">
+        <v>0.52654000000000001</v>
+      </c>
+      <c r="BD6">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="BE6">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="BF6">
+        <v>0.44025999999999998</v>
+      </c>
+      <c r="BG6">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="BH6">
+        <v>0.50941999999999998</v>
+      </c>
+      <c r="BI6">
+        <v>0.47861999999999999</v>
+      </c>
+      <c r="BJ6">
+        <v>0.53568000000000005</v>
+      </c>
+      <c r="BK6">
+        <v>0.53827999999999998</v>
+      </c>
+      <c r="BL6">
+        <v>0.49042000000000002</v>
+      </c>
+      <c r="BM6">
+        <v>0.52537999999999996</v>
+      </c>
+      <c r="BN6">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="BO6">
+        <v>0.55057999999999996</v>
+      </c>
+      <c r="BP6">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="BQ6">
+        <v>0.53891999999999995</v>
+      </c>
+      <c r="BR6">
+        <v>0.55112000000000005</v>
+      </c>
+      <c r="BS6">
+        <v>0.52058000000000004</v>
+      </c>
+      <c r="BT6">
+        <v>0.43956000000000001</v>
+      </c>
+      <c r="BU6">
+        <v>0.50926000000000005</v>
+      </c>
+      <c r="BV6">
+        <v>0.49752000000000002</v>
+      </c>
+      <c r="BW6">
+        <v>0.42314000000000002</v>
+      </c>
+      <c r="BX6">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="BY6">
+        <v>0.44625999999999999</v>
+      </c>
+      <c r="BZ6">
+        <v>0.52317999999999998</v>
+      </c>
+      <c r="CA6">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="CB6">
+        <v>0.43972</v>
+      </c>
+      <c r="CC6">
+        <v>0.55098000000000003</v>
+      </c>
+      <c r="CD6">
+        <v>0.53081999999999996</v>
+      </c>
+      <c r="CE6">
+        <v>0.49628</v>
+      </c>
+      <c r="CF6">
+        <v>0.56555999999999995</v>
+      </c>
+      <c r="CG6">
+        <v>0.47317999999999999</v>
+      </c>
+      <c r="CH6">
+        <v>0.42818000000000001</v>
+      </c>
+      <c r="CI6">
+        <v>0.47911999999999999</v>
+      </c>
+      <c r="CJ6">
+        <v>0.55791999999999997</v>
+      </c>
+      <c r="CK6">
+        <v>0.52732000000000001</v>
+      </c>
+      <c r="CL6">
+        <v>0.52685999999999999</v>
+      </c>
+      <c r="CM6">
+        <v>0.50995999999999997</v>
+      </c>
+      <c r="CN6">
+        <v>0.53047999999999995</v>
+      </c>
+      <c r="CO6">
+        <v>0.42936000000000002</v>
+      </c>
+      <c r="CP6">
+        <v>0.5383</v>
+      </c>
+      <c r="CQ6">
+        <v>0.51326000000000005</v>
+      </c>
+      <c r="CR6">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="CS6">
+        <v>0.47426000000000001</v>
+      </c>
+      <c r="CT6">
+        <v>0.44296000000000002</v>
+      </c>
+      <c r="CU6">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="CV6">
+        <v>0.48327999999999999</v>
+      </c>
+      <c r="CW6">
+        <v>0.5028227999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.53276000000000001</v>
+        <v>0.44618000000000002</v>
       </c>
       <c r="B7">
-        <v>0.42655999999999999</v>
+        <v>0.47127999999999998</v>
       </c>
       <c r="C7">
-        <v>0.47965999999999998</v>
+        <v>0.55752000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.49628</v>
+      </c>
+      <c r="E7">
+        <v>0.43763999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.46723999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.48376999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.56122000000000005</v>
+      </c>
+      <c r="I7">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="L7">
+        <v>0.66332999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.48126000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.53895999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.48715999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.50858000000000003</v>
+      </c>
+      <c r="Q7">
+        <v>0.45648</v>
+      </c>
+      <c r="R7">
+        <v>0.54613999999999996</v>
+      </c>
+      <c r="S7">
+        <v>0.52258000000000004</v>
+      </c>
+      <c r="T7">
+        <v>0.57301999999999997</v>
+      </c>
+      <c r="U7">
+        <v>0.47366000000000003</v>
+      </c>
+      <c r="V7">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.50548000000000004</v>
+      </c>
+      <c r="X7">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.52998000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.53778000000000004</v>
+      </c>
+      <c r="AA7">
+        <v>0.52914000000000005</v>
+      </c>
+      <c r="AB7">
+        <v>0.52761999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>0.50771999999999995</v>
+      </c>
+      <c r="AD7">
+        <v>0.49058000000000002</v>
+      </c>
+      <c r="AE7">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>0.56811999999999996</v>
+      </c>
+      <c r="AG7">
+        <v>0.50144</v>
+      </c>
+      <c r="AH7">
+        <v>0.45132</v>
+      </c>
+      <c r="AI7">
+        <v>0.51504000000000005</v>
+      </c>
+      <c r="AJ7">
+        <v>0.55828</v>
+      </c>
+      <c r="AK7">
+        <v>0.52148000000000005</v>
+      </c>
+      <c r="AL7">
+        <v>0.51241999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>0.52256000000000002</v>
+      </c>
+      <c r="AN7">
+        <v>0.53471999999999997</v>
+      </c>
+      <c r="AO7">
+        <v>0.55293999999999999</v>
+      </c>
+      <c r="AP7">
+        <v>0.44207999999999997</v>
+      </c>
+      <c r="AQ7">
+        <v>0.53771999999999998</v>
+      </c>
+      <c r="AR7">
+        <v>0.51627999999999996</v>
+      </c>
+      <c r="AS7">
+        <v>0.47664000000000001</v>
+      </c>
+      <c r="AT7">
+        <v>0.52432000000000001</v>
+      </c>
+      <c r="AU7">
+        <v>0.53535999999999995</v>
+      </c>
+      <c r="AV7">
+        <v>0.46148</v>
+      </c>
+      <c r="AW7">
+        <v>0.49725999999999998</v>
+      </c>
+      <c r="AX7">
+        <v>0.54268000000000005</v>
+      </c>
+      <c r="AY7">
+        <v>0.48759999999999998</v>
+      </c>
+      <c r="AZ7">
+        <v>0.52536000000000005</v>
+      </c>
+      <c r="BA7">
+        <v>0.46157999999999999</v>
+      </c>
+      <c r="BB7">
+        <v>0.54457999999999995</v>
+      </c>
+      <c r="BC7">
+        <v>0.52342</v>
+      </c>
+      <c r="BD7">
+        <v>0.49242000000000002</v>
+      </c>
+      <c r="BE7">
+        <v>0.48908000000000001</v>
+      </c>
+      <c r="BF7">
+        <v>0.47122000000000003</v>
+      </c>
+      <c r="BG7">
+        <v>0.45462000000000002</v>
+      </c>
+      <c r="BH7">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="BI7">
+        <v>0.47316000000000003</v>
+      </c>
+      <c r="BJ7">
+        <v>0.55723999999999996</v>
+      </c>
+      <c r="BK7">
+        <v>0.5242</v>
+      </c>
+      <c r="BL7">
+        <v>0.46204000000000001</v>
+      </c>
+      <c r="BM7">
+        <v>0.48715999999999998</v>
+      </c>
+      <c r="BN7">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="BO7">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="BP7">
+        <v>0.55384</v>
+      </c>
+      <c r="BQ7">
+        <v>0.47854000000000002</v>
+      </c>
+      <c r="BR7">
+        <v>0.45541999999999999</v>
+      </c>
+      <c r="BS7">
+        <v>0.55144000000000004</v>
+      </c>
+      <c r="BT7">
+        <v>0.41574</v>
+      </c>
+      <c r="BU7">
+        <v>0.57876000000000005</v>
+      </c>
+      <c r="BV7">
+        <v>0.52092000000000005</v>
+      </c>
+      <c r="BW7">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="BX7">
+        <v>0.56206</v>
+      </c>
+      <c r="BY7">
+        <v>0.47314000000000001</v>
+      </c>
+      <c r="BZ7">
+        <v>0.47482000000000002</v>
+      </c>
+      <c r="CA7">
+        <v>0.44813999999999998</v>
+      </c>
+      <c r="CB7">
+        <v>0.52773999999999999</v>
+      </c>
+      <c r="CC7">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="CD7">
+        <v>0.40248</v>
+      </c>
+      <c r="CE7">
+        <v>0.51022000000000001</v>
+      </c>
+      <c r="CF7">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="CG7">
+        <v>0.60207999999999995</v>
+      </c>
+      <c r="CH7">
+        <v>0.45651999999999998</v>
+      </c>
+      <c r="CI7">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="CJ7">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="CK7">
+        <v>0.50044</v>
+      </c>
+      <c r="CL7">
+        <v>0.45182</v>
+      </c>
+      <c r="CM7">
+        <v>0.46260000000000001</v>
+      </c>
+      <c r="CN7">
+        <v>0.42756</v>
+      </c>
+      <c r="CO7">
+        <v>0.51422000000000001</v>
+      </c>
+      <c r="CP7">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="CQ7">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="CR7">
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="CS7">
+        <v>0.54005999999999998</v>
+      </c>
+      <c r="CT7">
+        <v>0.50892000000000004</v>
+      </c>
+      <c r="CU7">
+        <v>0.53173999999999999</v>
+      </c>
+      <c r="CV7">
+        <v>0.57794000000000001</v>
+      </c>
+      <c r="CW7">
+        <v>0.50486779999999987</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.51363999999999999</v>
+        <v>0.48305999999999999</v>
       </c>
       <c r="B8">
-        <v>0.45669999999999999</v>
+        <v>0.49615999999999999</v>
       </c>
       <c r="C8">
-        <v>0.48516999999999999</v>
+        <v>0.47521999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.56752000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.57706000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.46132000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.47238000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.51332</v>
+      </c>
+      <c r="I8">
+        <v>0.51854</v>
+      </c>
+      <c r="J8">
+        <v>0.48875999999999997</v>
+      </c>
+      <c r="K8">
+        <v>0.46561999999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.55574000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.48268</v>
+      </c>
+      <c r="N8">
+        <v>0.56364000000000003</v>
+      </c>
+      <c r="O8">
+        <v>0.43478</v>
+      </c>
+      <c r="P8">
+        <v>0.54066000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>0.53634000000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.54383999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.49015999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.46864</v>
+      </c>
+      <c r="U8">
+        <v>0.52312000000000003</v>
+      </c>
+      <c r="V8">
+        <v>0.48748000000000002</v>
+      </c>
+      <c r="W8">
+        <v>0.54312000000000005</v>
+      </c>
+      <c r="X8">
+        <v>0.55533999999999994</v>
+      </c>
+      <c r="Y8">
+        <v>0.51727999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.57265999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>0.48093999999999998</v>
+      </c>
+      <c r="AB8">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>0.49256</v>
+      </c>
+      <c r="AD8">
+        <v>0.51134000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>0.58882000000000001</v>
+      </c>
+      <c r="AF8">
+        <v>0.56411999999999995</v>
+      </c>
+      <c r="AG8">
+        <v>0.48827999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>0.55034000000000005</v>
+      </c>
+      <c r="AI8">
+        <v>0.53191999999999995</v>
+      </c>
+      <c r="AJ8">
+        <v>0.53195999999999999</v>
+      </c>
+      <c r="AK8">
+        <v>0.42086000000000001</v>
+      </c>
+      <c r="AL8">
+        <v>0.57686000000000004</v>
+      </c>
+      <c r="AM8">
+        <v>0.46639999999999998</v>
+      </c>
+      <c r="AN8">
+        <v>0.52771999999999997</v>
+      </c>
+      <c r="AO8">
+        <v>0.52958000000000005</v>
+      </c>
+      <c r="AP8">
+        <v>0.52083999999999997</v>
+      </c>
+      <c r="AQ8">
+        <v>0.51454</v>
+      </c>
+      <c r="AR8">
+        <v>0.47764000000000001</v>
+      </c>
+      <c r="AS8">
+        <v>0.54215999999999998</v>
+      </c>
+      <c r="AT8">
+        <v>0.46356000000000003</v>
+      </c>
+      <c r="AU8">
+        <v>0.50405999999999995</v>
+      </c>
+      <c r="AV8">
+        <v>0.54091999999999996</v>
+      </c>
+      <c r="AW8">
+        <v>0.46633999999999998</v>
+      </c>
+      <c r="AX8">
+        <v>0.52405999999999997</v>
+      </c>
+      <c r="AY8">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AZ8">
+        <v>0.42165999999999998</v>
+      </c>
+      <c r="BA8">
+        <v>0.56054000000000004</v>
+      </c>
+      <c r="BB8">
+        <v>0.56676000000000004</v>
+      </c>
+      <c r="BC8">
+        <v>0.46304000000000001</v>
+      </c>
+      <c r="BD8">
+        <v>0.46727999999999997</v>
+      </c>
+      <c r="BE8">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="BF8">
+        <v>0.50466</v>
+      </c>
+      <c r="BG8">
+        <v>0.48705999999999999</v>
+      </c>
+      <c r="BH8">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="BI8">
+        <v>0.50417999999999996</v>
+      </c>
+      <c r="BJ8">
+        <v>0.48546</v>
+      </c>
+      <c r="BK8">
+        <v>0.47442000000000001</v>
+      </c>
+      <c r="BL8">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="BM8">
+        <v>0.52014000000000005</v>
+      </c>
+      <c r="BN8">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="BO8">
+        <v>0.52771999999999997</v>
+      </c>
+      <c r="BP8">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="BQ8">
+        <v>0.46057999999999999</v>
+      </c>
+      <c r="BR8">
+        <v>0.56906000000000001</v>
+      </c>
+      <c r="BS8">
+        <v>0.5071</v>
+      </c>
+      <c r="BT8">
+        <v>0.46927999999999997</v>
+      </c>
+      <c r="BU8">
+        <v>0.53502000000000005</v>
+      </c>
+      <c r="BV8">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="BW8">
+        <v>0.50273999999999996</v>
+      </c>
+      <c r="BX8">
+        <v>0.57496000000000003</v>
+      </c>
+      <c r="BY8">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="BZ8">
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="CA8">
+        <v>0.52056000000000002</v>
+      </c>
+      <c r="CB8">
+        <v>0.52917999999999998</v>
+      </c>
+      <c r="CC8">
+        <v>0.52725999999999995</v>
+      </c>
+      <c r="CD8">
+        <v>0.54261999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="CF8">
+        <v>0.55252000000000001</v>
+      </c>
+      <c r="CG8">
+        <v>0.53325999999999996</v>
+      </c>
+      <c r="CH8">
+        <v>0.55388000000000004</v>
+      </c>
+      <c r="CI8">
+        <v>0.54805999999999999</v>
+      </c>
+      <c r="CJ8">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="CK8">
+        <v>0.50838000000000005</v>
+      </c>
+      <c r="CL8">
+        <v>0.53988000000000003</v>
+      </c>
+      <c r="CM8">
+        <v>0.53237999999999996</v>
+      </c>
+      <c r="CN8">
+        <v>0.49687999999999999</v>
+      </c>
+      <c r="CO8">
+        <v>0.57032000000000005</v>
+      </c>
+      <c r="CP8">
+        <v>0.57111999999999996</v>
+      </c>
+      <c r="CQ8">
+        <v>0.49268000000000001</v>
+      </c>
+      <c r="CR8">
+        <v>0.4738</v>
+      </c>
+      <c r="CS8">
+        <v>0.50870000000000004</v>
+      </c>
+      <c r="CT8">
+        <v>0.52151999999999998</v>
+      </c>
+      <c r="CU8">
+        <v>0.46042</v>
+      </c>
+      <c r="CV8">
+        <v>0.49886000000000003</v>
+      </c>
+      <c r="CW8">
+        <v>0.51487699999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.48459999999999998</v>
+        <v>0.55069999999999997</v>
       </c>
       <c r="B9">
-        <v>0.55035999999999996</v>
+        <v>0.46172000000000002</v>
       </c>
       <c r="C9">
-        <v>0.51747999999999994</v>
+        <v>0.53742000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.48377999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.5302</v>
+      </c>
+      <c r="G9">
+        <v>0.49030000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.51683999999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.50182000000000004</v>
+      </c>
+      <c r="K9">
+        <v>0.46</v>
+      </c>
+      <c r="L9">
+        <v>0.52558000000000005</v>
+      </c>
+      <c r="M9">
+        <v>0.56547999999999998</v>
+      </c>
+      <c r="N9">
+        <v>0.53703999999999996</v>
+      </c>
+      <c r="O9">
+        <v>0.50697999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.50219999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>0.51227999999999996</v>
+      </c>
+      <c r="R9">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="S9">
+        <v>0.48924000000000001</v>
+      </c>
+      <c r="T9">
+        <v>0.39379999999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.45601999999999998</v>
+      </c>
+      <c r="V9">
+        <v>0.50387999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="X9">
+        <v>0.55096000000000001</v>
+      </c>
+      <c r="Y9">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="Z9">
+        <v>0.51739999999999997</v>
+      </c>
+      <c r="AA9">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="AB9">
+        <v>0.50619000000000003</v>
+      </c>
+      <c r="AC9">
+        <v>0.55056000000000005</v>
+      </c>
+      <c r="AD9">
+        <v>0.43806</v>
+      </c>
+      <c r="AE9">
+        <v>0.58892</v>
+      </c>
+      <c r="AF9">
+        <v>0.45251999999999998</v>
+      </c>
+      <c r="AG9">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="AH9">
+        <v>0.53996</v>
+      </c>
+      <c r="AI9">
+        <v>0.52661999999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>0.51654</v>
+      </c>
+      <c r="AK9">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="AL9">
+        <v>0.46354000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.55012000000000005</v>
+      </c>
+      <c r="AN9">
+        <v>0.52403999999999995</v>
+      </c>
+      <c r="AO9">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="AP9">
+        <v>0.41438000000000003</v>
+      </c>
+      <c r="AQ9">
+        <v>0.44634000000000001</v>
+      </c>
+      <c r="AR9">
+        <v>0.49968000000000001</v>
+      </c>
+      <c r="AS9">
+        <v>0.56566000000000005</v>
+      </c>
+      <c r="AT9">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="AU9">
+        <v>0.52927999999999997</v>
+      </c>
+      <c r="AV9">
+        <v>0.53713999999999995</v>
+      </c>
+      <c r="AW9">
+        <v>0.59787999999999997</v>
+      </c>
+      <c r="AX9">
+        <v>0.51004000000000005</v>
+      </c>
+      <c r="AY9">
+        <v>0.56111999999999995</v>
+      </c>
+      <c r="AZ9">
+        <v>0.49606</v>
+      </c>
+      <c r="BA9">
+        <v>0.51690000000000003</v>
+      </c>
+      <c r="BB9">
+        <v>0.51841999999999999</v>
+      </c>
+      <c r="BC9">
+        <v>0.60436000000000001</v>
+      </c>
+      <c r="BD9">
+        <v>0.47464000000000001</v>
+      </c>
+      <c r="BE9">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="BF9">
+        <v>0.48336000000000001</v>
+      </c>
+      <c r="BG9">
+        <v>0.57382</v>
+      </c>
+      <c r="BH9">
+        <v>0.47774</v>
+      </c>
+      <c r="BI9">
+        <v>0.47776000000000002</v>
+      </c>
+      <c r="BJ9">
+        <v>0.48708000000000001</v>
+      </c>
+      <c r="BK9">
+        <v>0.51185999999999998</v>
+      </c>
+      <c r="BL9">
+        <v>0.55425999999999997</v>
+      </c>
+      <c r="BM9">
+        <v>0.47211999999999998</v>
+      </c>
+      <c r="BN9">
+        <v>0.54825999999999997</v>
+      </c>
+      <c r="BO9">
+        <v>0.52115999999999996</v>
+      </c>
+      <c r="BP9">
+        <v>0.53488000000000002</v>
+      </c>
+      <c r="BQ9">
+        <v>0.57911999999999997</v>
+      </c>
+      <c r="BR9">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="BS9">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="BT9">
+        <v>0.55288000000000004</v>
+      </c>
+      <c r="BU9">
+        <v>0.53580000000000005</v>
+      </c>
+      <c r="BV9">
+        <v>0.37178</v>
+      </c>
+      <c r="BW9">
+        <v>0.50356000000000001</v>
+      </c>
+      <c r="BX9">
+        <v>0.50195999999999996</v>
+      </c>
+      <c r="BY9">
+        <v>0.43084</v>
+      </c>
+      <c r="BZ9">
+        <v>0.49536000000000002</v>
+      </c>
+      <c r="CA9">
+        <v>0.51302000000000003</v>
+      </c>
+      <c r="CB9">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="CC9">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="CD9">
+        <v>0.49902000000000002</v>
+      </c>
+      <c r="CE9">
+        <v>0.50807999999999998</v>
+      </c>
+      <c r="CF9">
+        <v>0.47968</v>
+      </c>
+      <c r="CG9">
+        <v>0.55471999999999999</v>
+      </c>
+      <c r="CH9">
+        <v>0.55745999999999996</v>
+      </c>
+      <c r="CI9">
+        <v>0.51034000000000002</v>
+      </c>
+      <c r="CJ9">
+        <v>0.47452</v>
+      </c>
+      <c r="CK9">
+        <v>0.52071999999999996</v>
+      </c>
+      <c r="CL9">
+        <v>0.56466000000000005</v>
+      </c>
+      <c r="CM9">
+        <v>0.50438000000000005</v>
+      </c>
+      <c r="CN9">
+        <v>0.56835999999999998</v>
+      </c>
+      <c r="CO9">
+        <v>0.55093999999999999</v>
+      </c>
+      <c r="CP9">
+        <v>0.46479999999999999</v>
+      </c>
+      <c r="CQ9">
+        <v>0.52556000000000003</v>
+      </c>
+      <c r="CR9">
+        <v>0.51383999999999996</v>
+      </c>
+      <c r="CS9">
+        <v>0.52983999999999998</v>
+      </c>
+      <c r="CT9">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="CU9">
+        <v>0.51581999999999995</v>
+      </c>
+      <c r="CV9">
+        <v>0.49608000000000002</v>
+      </c>
+      <c r="CW9">
+        <v>0.51274150000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.51448000000000005</v>
+        <v>0.53647999999999996</v>
       </c>
       <c r="B10">
-        <v>0.52073999999999998</v>
+        <v>0.48937999999999998</v>
       </c>
       <c r="C10">
-        <v>0.51761000000000001</v>
+        <v>0.46126</v>
+      </c>
+      <c r="D10">
+        <v>0.46223999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.54783999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.52546000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.49997999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.54022000000000003</v>
+      </c>
+      <c r="L10">
+        <v>0.52854000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.44568000000000002</v>
+      </c>
+      <c r="N10">
+        <v>0.55123999999999995</v>
+      </c>
+      <c r="O10">
+        <v>0.54708000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.51534000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.55506</v>
+      </c>
+      <c r="R10">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="S10">
+        <v>0.47958000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.52685999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="V10">
+        <v>0.52103999999999995</v>
+      </c>
+      <c r="W10">
+        <v>0.56077999999999995</v>
+      </c>
+      <c r="X10">
+        <v>0.49662000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.47752</v>
+      </c>
+      <c r="Z10">
+        <v>0.46084000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>0.45423999999999998</v>
+      </c>
+      <c r="AB10">
+        <v>0.43314000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>0.50607999999999997</v>
+      </c>
+      <c r="AD10">
+        <v>0.43143999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.51895999999999998</v>
+      </c>
+      <c r="AF10">
+        <v>0.52237999999999996</v>
+      </c>
+      <c r="AG10">
+        <v>0.53568000000000005</v>
+      </c>
+      <c r="AH10">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="AI10">
+        <v>0.51812000000000002</v>
+      </c>
+      <c r="AJ10">
+        <v>0.49064000000000002</v>
+      </c>
+      <c r="AK10">
+        <v>0.47566000000000003</v>
+      </c>
+      <c r="AL10">
+        <v>0.48346</v>
+      </c>
+      <c r="AM10">
+        <v>0.47226000000000001</v>
+      </c>
+      <c r="AN10">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="AO10">
+        <v>0.54054000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>0.49306</v>
+      </c>
+      <c r="AQ10">
+        <v>0.44469999999999998</v>
+      </c>
+      <c r="AR10">
+        <v>0.53115999999999997</v>
+      </c>
+      <c r="AS10">
+        <v>0.51934000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>0.53605999999999998</v>
+      </c>
+      <c r="AU10">
+        <v>0.47345999999999999</v>
+      </c>
+      <c r="AV10">
+        <v>0.52842</v>
+      </c>
+      <c r="AW10">
+        <v>0.51478000000000002</v>
+      </c>
+      <c r="AX10">
+        <v>0.47664000000000001</v>
+      </c>
+      <c r="AY10">
+        <v>0.53517999999999999</v>
+      </c>
+      <c r="AZ10">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="BA10">
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="BB10">
+        <v>0.56284000000000001</v>
+      </c>
+      <c r="BC10">
+        <v>0.44918000000000002</v>
+      </c>
+      <c r="BD10">
+        <v>0.51104000000000005</v>
+      </c>
+      <c r="BE10">
+        <v>0.53617999999999999</v>
+      </c>
+      <c r="BF10">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="BG10">
+        <v>0.59655999999999998</v>
+      </c>
+      <c r="BH10">
+        <v>0.54676000000000002</v>
+      </c>
+      <c r="BI10">
+        <v>0.49184</v>
+      </c>
+      <c r="BJ10">
+        <v>0.47392000000000001</v>
+      </c>
+      <c r="BK10">
+        <v>0.49731999999999998</v>
+      </c>
+      <c r="BL10">
+        <v>0.52151999999999998</v>
+      </c>
+      <c r="BM10">
+        <v>0.53705999999999998</v>
+      </c>
+      <c r="BN10">
+        <v>0.54744000000000004</v>
+      </c>
+      <c r="BO10">
+        <v>0.52644000000000002</v>
+      </c>
+      <c r="BP10">
+        <v>0.57255999999999996</v>
+      </c>
+      <c r="BQ10">
+        <v>0.4652</v>
+      </c>
+      <c r="BR10">
+        <v>0.57891999999999999</v>
+      </c>
+      <c r="BS10">
+        <v>0.47654000000000002</v>
+      </c>
+      <c r="BT10">
+        <v>0.51739999999999997</v>
+      </c>
+      <c r="BU10">
+        <v>0.53808</v>
+      </c>
+      <c r="BV10">
+        <v>0.52595999999999998</v>
+      </c>
+      <c r="BW10">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="BX10">
+        <v>0.5363</v>
+      </c>
+      <c r="BY10">
+        <v>0.46738000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>0.55566000000000004</v>
+      </c>
+      <c r="CA10">
+        <v>0.51193999999999995</v>
+      </c>
+      <c r="CB10">
+        <v>0.50639999999999996</v>
+      </c>
+      <c r="CC10">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="CD10">
+        <v>0.56855999999999995</v>
+      </c>
+      <c r="CE10">
+        <v>0.53181999999999996</v>
+      </c>
+      <c r="CF10">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="CG10">
+        <v>0.56588000000000005</v>
+      </c>
+      <c r="CH10">
+        <v>0.45241999999999999</v>
+      </c>
+      <c r="CI10">
+        <v>0.49564000000000002</v>
+      </c>
+      <c r="CJ10">
+        <v>0.54491999999999996</v>
+      </c>
+      <c r="CK10">
+        <v>0.50197999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.50604000000000005</v>
+      </c>
+      <c r="CM10">
+        <v>0.49996000000000002</v>
+      </c>
+      <c r="CN10">
+        <v>0.58335999999999999</v>
+      </c>
+      <c r="CO10">
+        <v>0.57464000000000004</v>
+      </c>
+      <c r="CP10">
+        <v>0.54305999999999999</v>
+      </c>
+      <c r="CQ10">
+        <v>0.52734000000000003</v>
+      </c>
+      <c r="CR10">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="CS10">
+        <v>0.49841999999999997</v>
+      </c>
+      <c r="CT10">
+        <v>0.45062000000000002</v>
+      </c>
+      <c r="CU10">
+        <v>0.48332000000000003</v>
+      </c>
+      <c r="CV10">
+        <v>0.52022000000000002</v>
+      </c>
+      <c r="CW10">
+        <v>0.51460860000000019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.52525999999999995</v>
+        <v>0.53359999999999996</v>
       </c>
       <c r="B11">
-        <v>0.54935999999999996</v>
+        <v>0.52642</v>
       </c>
       <c r="C11">
-        <v>0.53730999999999995</v>
+        <v>0.57254000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.52032</v>
+      </c>
+      <c r="E11">
+        <v>0.59967999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.51988000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.51871999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.50046000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.54847999999999997</v>
+      </c>
+      <c r="K11">
+        <v>0.58282</v>
+      </c>
+      <c r="L11">
+        <v>0.57545999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.57487999999999995</v>
+      </c>
+      <c r="N11">
+        <v>0.54234000000000004</v>
+      </c>
+      <c r="O11">
+        <v>0.55074000000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.58255999999999997</v>
+      </c>
+      <c r="Q11">
+        <v>0.50436000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.55876000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.49086000000000002</v>
+      </c>
+      <c r="T11">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.42304000000000003</v>
+      </c>
+      <c r="V11">
+        <v>0.57233999999999996</v>
+      </c>
+      <c r="W11">
+        <v>0.46163999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.55005999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.54788000000000003</v>
+      </c>
+      <c r="Z11">
+        <v>0.46967999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.45854</v>
+      </c>
+      <c r="AB11">
+        <v>0.52368000000000003</v>
+      </c>
+      <c r="AC11">
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>0.53654000000000002</v>
+      </c>
+      <c r="AF11">
+        <v>0.51053999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.5181</v>
+      </c>
+      <c r="AI11">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>0.54117999999999999</v>
+      </c>
+      <c r="AK11">
+        <v>0.52261999999999997</v>
+      </c>
+      <c r="AL11">
+        <v>0.4617</v>
+      </c>
+      <c r="AM11">
+        <v>0.40407999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.57057999999999998</v>
+      </c>
+      <c r="AO11">
+        <v>0.50046000000000002</v>
+      </c>
+      <c r="AP11">
+        <v>0.51517999999999997</v>
+      </c>
+      <c r="AQ11">
+        <v>0.54337999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.53524000000000005</v>
+      </c>
+      <c r="AS11">
+        <v>0.39185999999999999</v>
+      </c>
+      <c r="AT11">
+        <v>0.50895999999999997</v>
+      </c>
+      <c r="AU11">
+        <v>0.50588</v>
+      </c>
+      <c r="AV11">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AW11">
+        <v>0.54391999999999996</v>
+      </c>
+      <c r="AX11">
+        <v>0.53522000000000003</v>
+      </c>
+      <c r="AY11">
+        <v>0.54201999999999995</v>
+      </c>
+      <c r="AZ11">
+        <v>0.49409999999999998</v>
+      </c>
+      <c r="BA11">
+        <v>0.54413999999999996</v>
+      </c>
+      <c r="BB11">
+        <v>0.47192000000000001</v>
+      </c>
+      <c r="BC11">
+        <v>0.52312000000000003</v>
+      </c>
+      <c r="BD11">
+        <v>0.46063999999999999</v>
+      </c>
+      <c r="BE11">
+        <v>0.54934000000000005</v>
+      </c>
+      <c r="BF11">
+        <v>0.42102000000000001</v>
+      </c>
+      <c r="BG11">
+        <v>0.51071999999999995</v>
+      </c>
+      <c r="BH11">
+        <v>0.47805999999999998</v>
+      </c>
+      <c r="BI11">
+        <v>0.48415999999999998</v>
+      </c>
+      <c r="BJ11">
+        <v>0.54305999999999999</v>
+      </c>
+      <c r="BK11">
+        <v>0.55613999999999997</v>
+      </c>
+      <c r="BL11">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="BM11">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="BN11">
+        <v>0.50417999999999996</v>
+      </c>
+      <c r="BO11">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="BP11">
+        <v>0.56667999999999996</v>
+      </c>
+      <c r="BQ11">
+        <v>0.53088000000000002</v>
+      </c>
+      <c r="BR11">
+        <v>0.58153999999999995</v>
+      </c>
+      <c r="BS11">
+        <v>0.48402000000000001</v>
+      </c>
+      <c r="BT11">
+        <v>0.60433999999999999</v>
+      </c>
+      <c r="BU11">
+        <v>0.47846</v>
+      </c>
+      <c r="BV11">
+        <v>0.40548000000000001</v>
+      </c>
+      <c r="BW11">
+        <v>0.40826000000000001</v>
+      </c>
+      <c r="BX11">
+        <v>0.52425999999999995</v>
+      </c>
+      <c r="BY11">
+        <v>0.54386000000000001</v>
+      </c>
+      <c r="BZ11">
+        <v>0.43906000000000001</v>
+      </c>
+      <c r="CA11">
+        <v>0.56210000000000004</v>
+      </c>
+      <c r="CB11">
+        <v>0.55196000000000001</v>
+      </c>
+      <c r="CC11">
+        <v>0.44547999999999999</v>
+      </c>
+      <c r="CD11">
+        <v>0.49741999999999997</v>
+      </c>
+      <c r="CE11">
+        <v>0.47814000000000001</v>
+      </c>
+      <c r="CF11">
+        <v>0.56686000000000003</v>
+      </c>
+      <c r="CG11">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="CH11">
+        <v>0.54112000000000005</v>
+      </c>
+      <c r="CI11">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="CJ11">
+        <v>0.53795999999999999</v>
+      </c>
+      <c r="CK11">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="CL11">
+        <v>0.54101999999999995</v>
+      </c>
+      <c r="CM11">
+        <v>0.48626000000000003</v>
+      </c>
+      <c r="CN11">
+        <v>0.52688000000000001</v>
+      </c>
+      <c r="CO11">
+        <v>0.53302000000000005</v>
+      </c>
+      <c r="CP11">
+        <v>0.54981999999999998</v>
+      </c>
+      <c r="CQ11">
+        <v>0.53564000000000001</v>
+      </c>
+      <c r="CR11">
+        <v>0.46682000000000001</v>
+      </c>
+      <c r="CS11">
+        <v>0.56686000000000003</v>
+      </c>
+      <c r="CT11">
+        <v>0.55878000000000005</v>
+      </c>
+      <c r="CU11">
+        <v>0.56474000000000002</v>
+      </c>
+      <c r="CV11">
+        <v>0.55957999999999997</v>
+      </c>
+      <c r="CW11">
+        <v>0.52167959999999969</v>
       </c>
     </row>
   </sheetData>
